--- a/data/input/absenteeism_data_1.xlsx
+++ b/data/input/absenteeism_data_1.xlsx
@@ -476,190 +476,190 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>48181</v>
+        <v>58934</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Murilo Oliveira</t>
+          <t>Nicole Sales</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>8</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45088</v>
+        <v>45100</v>
       </c>
       <c r="G2" t="n">
-        <v>9200.51</v>
+        <v>8335.9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>70413</v>
+        <v>41600</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sarah da Mota</t>
+          <t>Maria Alves</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45078</v>
+        <v>45079</v>
       </c>
       <c r="G3" t="n">
-        <v>4906.27</v>
+        <v>4034.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>43096</v>
+        <v>514</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>André Fogaça</t>
+          <t>Dr. Marcelo Oliveira</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45087</v>
+        <v>45089</v>
       </c>
       <c r="G4" t="n">
-        <v>8288.440000000001</v>
+        <v>2564.79</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3653</v>
+        <v>23028</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ana Lívia Dias</t>
+          <t>Anthony Lima</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45102</v>
+        <v>45087</v>
       </c>
       <c r="G5" t="n">
-        <v>8895.469999999999</v>
+        <v>12158.67</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>27227</v>
+        <v>72221</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bruna Nascimento</t>
+          <t>Bernardo Duarte</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45079</v>
+        <v>45104</v>
       </c>
       <c r="G6" t="n">
-        <v>2858.99</v>
+        <v>2531.82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>38773</v>
+        <v>65312</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sr. Pietro da Cunha</t>
+          <t>Theo Ramos</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45104</v>
+        <v>45081</v>
       </c>
       <c r="G7" t="n">
-        <v>4180.8</v>
+        <v>11244.69</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>86651</v>
+        <v>16187</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Laís Lopes</t>
+          <t>Mariane Fogaça</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -668,27 +668,27 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45094</v>
+        <v>45101</v>
       </c>
       <c r="G8" t="n">
-        <v>12405.18</v>
+        <v>3478.44</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>21760</v>
+        <v>7267</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Maria Vitória Rezende</t>
+          <t>Sra. Giovanna Monteiro</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -697,71 +697,71 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45100</v>
+        <v>45081</v>
       </c>
       <c r="G9" t="n">
-        <v>5800.12</v>
+        <v>3980.55</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2383</v>
+        <v>28153</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Nathan Castro</t>
+          <t>Vitor Gabriel Fernandes</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>5</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45100</v>
+        <v>45094</v>
       </c>
       <c r="G10" t="n">
-        <v>10196.16</v>
+        <v>6876.92</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>49984</v>
+        <v>97324</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Luiza Martins</t>
+          <t>Bryan Pinto</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45093</v>
+        <v>45096</v>
       </c>
       <c r="G11" t="n">
-        <v>6505.24</v>
+        <v>3101.04</v>
       </c>
     </row>
   </sheetData>
